--- a/Code/Results/Cases/Case_1_112/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_112/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9870558413953543</v>
+        <v>1.017573522171699</v>
       </c>
       <c r="D2">
-        <v>1.028600020549412</v>
+        <v>1.032216671736316</v>
       </c>
       <c r="E2">
-        <v>0.9953047300463251</v>
+        <v>1.01895412357485</v>
       </c>
       <c r="F2">
-        <v>0.9632101832684823</v>
+        <v>1.015937847442841</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041481924031735</v>
+        <v>1.031487194878901</v>
       </c>
       <c r="J2">
-        <v>1.009630725239214</v>
+        <v>1.022786867894597</v>
       </c>
       <c r="K2">
-        <v>1.039674787659961</v>
+        <v>1.035022541285615</v>
       </c>
       <c r="L2">
-        <v>1.006829867343562</v>
+        <v>1.021798806911659</v>
       </c>
       <c r="M2">
-        <v>0.9752070208833415</v>
+        <v>1.018791512133567</v>
       </c>
       <c r="N2">
-        <v>1.00720071516861</v>
+        <v>1.011687332015984</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9911880063222249</v>
+        <v>1.018431927234231</v>
       </c>
       <c r="D3">
-        <v>1.030915515741793</v>
+        <v>1.032702661840093</v>
       </c>
       <c r="E3">
-        <v>0.9985600228577755</v>
+        <v>1.019679667576192</v>
       </c>
       <c r="F3">
-        <v>0.970071844945156</v>
+        <v>1.017436600937688</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042382868357046</v>
+        <v>1.031620742544686</v>
       </c>
       <c r="J3">
-        <v>1.011921812190474</v>
+        <v>1.023281697063658</v>
       </c>
       <c r="K3">
-        <v>1.041167536604785</v>
+        <v>1.035318121683775</v>
       </c>
       <c r="L3">
-        <v>1.009211361677977</v>
+        <v>1.02233049326863</v>
       </c>
       <c r="M3">
-        <v>0.9811025466885316</v>
+        <v>1.020093617021657</v>
       </c>
       <c r="N3">
-        <v>1.007972344778034</v>
+        <v>1.011852679580706</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9938052698922354</v>
+        <v>1.01898757080724</v>
       </c>
       <c r="D4">
-        <v>1.032386257979274</v>
+        <v>1.033017203349916</v>
       </c>
       <c r="E4">
-        <v>1.00062778955893</v>
+        <v>1.020149708460257</v>
       </c>
       <c r="F4">
-        <v>0.9744032120399453</v>
+        <v>1.018406564735827</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042944252942771</v>
+        <v>1.03170600099857</v>
       </c>
       <c r="J4">
-        <v>1.01336877597207</v>
+        <v>1.02360146412114</v>
       </c>
       <c r="K4">
-        <v>1.042108911749089</v>
+        <v>1.035508734712094</v>
       </c>
       <c r="L4">
-        <v>1.010718643614692</v>
+        <v>1.022674429038855</v>
       </c>
       <c r="M4">
-        <v>0.9848207107364602</v>
+        <v>1.020935851064403</v>
       </c>
       <c r="N4">
-        <v>1.008459523533916</v>
+        <v>1.011959482729608</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9948925379497008</v>
+        <v>1.019221210272095</v>
       </c>
       <c r="D5">
-        <v>1.032998126718988</v>
+        <v>1.033149452501587</v>
       </c>
       <c r="E5">
-        <v>1.001488165550841</v>
+        <v>1.020347448092494</v>
       </c>
       <c r="F5">
-        <v>0.9761994352122088</v>
+        <v>1.018814382505304</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043175199159906</v>
+        <v>1.031741566469893</v>
       </c>
       <c r="J5">
-        <v>1.01396886425469</v>
+        <v>1.023735793179065</v>
       </c>
       <c r="K5">
-        <v>1.042498922636372</v>
+        <v>1.035588712409683</v>
       </c>
       <c r="L5">
-        <v>1.011344512629269</v>
+        <v>1.022818994956824</v>
       </c>
       <c r="M5">
-        <v>0.9863618047849126</v>
+        <v>1.021289854454292</v>
       </c>
       <c r="N5">
-        <v>1.008661527034239</v>
+        <v>1.012004337647208</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.995074345054986</v>
+        <v>1.019260442101867</v>
       </c>
       <c r="D6">
-        <v>1.03310048957277</v>
+        <v>1.033171658599658</v>
       </c>
       <c r="E6">
-        <v>1.00163211315182</v>
+        <v>1.020380657304102</v>
       </c>
       <c r="F6">
-        <v>0.9764996179773691</v>
+        <v>1.018882859665636</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043213682352475</v>
+        <v>1.031747521800986</v>
       </c>
       <c r="J6">
-        <v>1.014069148044608</v>
+        <v>1.023758341685476</v>
       </c>
       <c r="K6">
-        <v>1.042564074040289</v>
+        <v>1.035602131836898</v>
       </c>
       <c r="L6">
-        <v>1.011449149581965</v>
+        <v>1.022843266747728</v>
       </c>
       <c r="M6">
-        <v>0.9866193007820248</v>
+        <v>1.021349289074778</v>
       </c>
       <c r="N6">
-        <v>1.008695282378229</v>
+        <v>1.012011866334033</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9938198485740831</v>
+        <v>1.018990692525544</v>
       </c>
       <c r="D7">
-        <v>1.032394458861552</v>
+        <v>1.033018970409196</v>
       </c>
       <c r="E7">
-        <v>1.000639320538908</v>
+        <v>1.020152350139783</v>
       </c>
       <c r="F7">
-        <v>0.9744273085837624</v>
+        <v>1.018412013834721</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042947358600477</v>
+        <v>1.031706477315876</v>
       </c>
       <c r="J7">
-        <v>1.013376826291555</v>
+        <v>1.023603259429936</v>
       </c>
       <c r="K7">
-        <v>1.04211414549305</v>
+        <v>1.035509803992401</v>
       </c>
       <c r="L7">
-        <v>1.010727036771091</v>
+        <v>1.022676360833381</v>
       </c>
       <c r="M7">
-        <v>0.9848413880278492</v>
+        <v>1.020940581552696</v>
       </c>
       <c r="N7">
-        <v>1.008462233621051</v>
+        <v>1.011960082260745</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9884643411496347</v>
+        <v>1.017863582853292</v>
       </c>
       <c r="D8">
-        <v>1.029388354816768</v>
+        <v>1.032380898161505</v>
       </c>
       <c r="E8">
-        <v>0.9964130763262398</v>
+        <v>1.019199206949922</v>
       </c>
       <c r="F8">
-        <v>0.9655524178146506</v>
+        <v>1.016444325562885</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041790939208455</v>
+        <v>1.031532566970073</v>
       </c>
       <c r="J8">
-        <v>1.010412543650401</v>
+        <v>1.022954184591376</v>
       </c>
       <c r="K8">
-        <v>1.040184429649726</v>
+        <v>1.035122567444039</v>
       </c>
       <c r="L8">
-        <v>1.007641854996958</v>
+        <v>1.021978513367785</v>
       </c>
       <c r="M8">
-        <v>0.9772201455398746</v>
+        <v>1.019231631934139</v>
       </c>
       <c r="N8">
-        <v>1.007464058683015</v>
+        <v>1.011743250778884</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9785702045267624</v>
+        <v>1.01587901125328</v>
       </c>
       <c r="D9">
-        <v>1.023872596088451</v>
+        <v>1.031257169330683</v>
       </c>
       <c r="E9">
-        <v>0.9886540214116807</v>
+        <v>1.017524017094466</v>
       </c>
       <c r="F9">
-        <v>0.9490178329590653</v>
+        <v>1.012978118701747</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039582635563983</v>
+        <v>1.031217283563179</v>
       </c>
       <c r="J9">
-        <v>1.004903080546916</v>
+        <v>1.021807226035386</v>
       </c>
       <c r="K9">
-        <v>1.036589876854143</v>
+        <v>1.034435296853642</v>
       </c>
       <c r="L9">
-        <v>1.001933901130643</v>
+        <v>1.020748067794838</v>
       </c>
       <c r="M9">
-        <v>0.9629960168000929</v>
+        <v>1.016217672278221</v>
       </c>
       <c r="N9">
-        <v>1.005607779744374</v>
+        <v>1.011359735222549</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9716303824915566</v>
+        <v>1.014557026781007</v>
       </c>
       <c r="D10">
-        <v>1.020036880094658</v>
+        <v>1.03050854360486</v>
       </c>
       <c r="E10">
-        <v>0.983247413031237</v>
+        <v>1.016410214593027</v>
       </c>
       <c r="F10">
-        <v>0.9372933050558859</v>
+        <v>1.010667792754732</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037987856739577</v>
+        <v>1.031001184960753</v>
       </c>
       <c r="J10">
-        <v>1.001016616485217</v>
+        <v>1.021040449966748</v>
       </c>
       <c r="K10">
-        <v>1.034053547208264</v>
+        <v>1.033973877930194</v>
       </c>
       <c r="L10">
-        <v>0.99792587490521</v>
+        <v>1.019927296992984</v>
       </c>
       <c r="M10">
-        <v>0.9528952228948958</v>
+        <v>1.014206410942817</v>
       </c>
       <c r="N10">
-        <v>1.00429786580571</v>
+        <v>1.011103105670294</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9685348265437239</v>
+        <v>1.013984850312608</v>
       </c>
       <c r="D11">
-        <v>1.018335539234795</v>
+        <v>1.030184526244864</v>
       </c>
       <c r="E11">
-        <v>0.9808448226420408</v>
+        <v>1.015928645792188</v>
       </c>
       <c r="F11">
-        <v>0.9320248004846026</v>
+        <v>1.009667449515966</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037266259012641</v>
+        <v>1.030906215921613</v>
       </c>
       <c r="J11">
-        <v>0.9992778175935553</v>
+        <v>1.020707923933341</v>
       </c>
       <c r="K11">
-        <v>1.03291976441823</v>
+        <v>1.033773323468578</v>
       </c>
       <c r="L11">
-        <v>0.9961372500164781</v>
+        <v>1.019571787669577</v>
       </c>
       <c r="M11">
-        <v>0.9483535344348114</v>
+        <v>1.01333499829042</v>
       </c>
       <c r="N11">
-        <v>1.003711759522659</v>
+        <v>1.010991758143142</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9673705474570492</v>
+        <v>1.013772356623113</v>
       </c>
       <c r="D12">
-        <v>1.017697244871869</v>
+        <v>1.03006419486757</v>
       </c>
       <c r="E12">
-        <v>0.9799425925503571</v>
+        <v>1.015749877935133</v>
       </c>
       <c r="F12">
-        <v>0.9300366070285215</v>
+        <v>1.009295878735913</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036993375366442</v>
+        <v>1.030870730752748</v>
       </c>
       <c r="J12">
-        <v>0.9986230478696145</v>
+        <v>1.02058433300238</v>
       </c>
       <c r="K12">
-        <v>1.032493070108264</v>
+        <v>1.033698715922452</v>
       </c>
       <c r="L12">
-        <v>0.9954644205117484</v>
+        <v>1.019439719548922</v>
       </c>
       <c r="M12">
-        <v>0.9466392597206823</v>
+        <v>1.013011233792705</v>
       </c>
       <c r="N12">
-        <v>1.003491049989907</v>
+        <v>1.010950365000452</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9676209576289118</v>
+        <v>1.013817935510125</v>
       </c>
       <c r="D13">
-        <v>1.017834452566342</v>
+        <v>1.030090005284325</v>
       </c>
       <c r="E13">
-        <v>0.9801365770608912</v>
+        <v>1.015788219336374</v>
       </c>
       <c r="F13">
-        <v>0.9304645368291242</v>
+        <v>1.009375581957831</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037052132475958</v>
+        <v>1.030878351912572</v>
       </c>
       <c r="J13">
-        <v>0.9987639095731294</v>
+        <v>1.020610847110551</v>
       </c>
       <c r="K13">
-        <v>1.03258485265465</v>
+        <v>1.033714724577073</v>
       </c>
       <c r="L13">
-        <v>0.9956091353906242</v>
+        <v>1.019468049332292</v>
       </c>
       <c r="M13">
-        <v>0.9470082477897797</v>
+        <v>1.013080686205478</v>
       </c>
       <c r="N13">
-        <v>1.0035385316416</v>
+        <v>1.010959245493667</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9684388868319993</v>
+        <v>1.013967284738225</v>
       </c>
       <c r="D14">
-        <v>1.018282908567677</v>
+        <v>1.030174579134795</v>
       </c>
       <c r="E14">
-        <v>0.9807704473873777</v>
+        <v>1.015913866572673</v>
       </c>
       <c r="F14">
-        <v>0.9318611080407664</v>
+        <v>1.009636735364475</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037243802438436</v>
+        <v>1.030903286976488</v>
       </c>
       <c r="J14">
-        <v>0.9992238787804335</v>
+        <v>1.02069770941675</v>
       </c>
       <c r="K14">
-        <v>1.032884608419715</v>
+        <v>1.033767158678348</v>
       </c>
       <c r="L14">
-        <v>0.9960818090821745</v>
+        <v>1.019560871204136</v>
       </c>
       <c r="M14">
-        <v>0.9482124013154385</v>
+        <v>1.013308237535683</v>
       </c>
       <c r="N14">
-        <v>1.00369357787419</v>
+        <v>1.010988337260074</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9689408984812524</v>
+        <v>1.014059308789047</v>
       </c>
       <c r="D15">
-        <v>1.018558368685001</v>
+        <v>1.030226690986185</v>
       </c>
       <c r="E15">
-        <v>0.9811596794228298</v>
+        <v>1.015991296348523</v>
       </c>
       <c r="F15">
-        <v>0.9327173651647168</v>
+        <v>1.009797640604566</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037361248108159</v>
+        <v>1.030918622552496</v>
       </c>
       <c r="J15">
-        <v>0.9995060856253499</v>
+        <v>1.020751218091515</v>
       </c>
       <c r="K15">
-        <v>1.033068554658154</v>
+        <v>1.033799450157405</v>
       </c>
       <c r="L15">
-        <v>0.9963719037353679</v>
+        <v>1.019618059698134</v>
       </c>
       <c r="M15">
-        <v>0.9489506387394634</v>
+        <v>1.013448428284135</v>
       </c>
       <c r="N15">
-        <v>1.003788703830826</v>
+        <v>1.0110062571939</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.971833845719035</v>
+        <v>1.014595005577131</v>
       </c>
       <c r="D16">
-        <v>1.020148918227682</v>
+        <v>1.030530050716699</v>
       </c>
       <c r="E16">
-        <v>0.9834055225563039</v>
+        <v>1.016442189862692</v>
       </c>
       <c r="F16">
-        <v>0.9376387175203571</v>
+        <v>1.010734182702766</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038035077198773</v>
+        <v>1.031007458348545</v>
       </c>
       <c r="J16">
-        <v>1.001130794827048</v>
+        <v>1.021062507961469</v>
       </c>
       <c r="K16">
-        <v>1.034128025748004</v>
+        <v>1.033987172209001</v>
       </c>
       <c r="L16">
-        <v>0.9980434213640984</v>
+        <v>1.019950888691154</v>
       </c>
       <c r="M16">
-        <v>0.9531929304973744</v>
+        <v>1.014264232329044</v>
       </c>
       <c r="N16">
-        <v>1.004336351846244</v>
+        <v>1.01111049070426</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9736236936252797</v>
+        <v>1.014931101600696</v>
       </c>
       <c r="D17">
-        <v>1.021135618661289</v>
+        <v>1.030720379610115</v>
       </c>
       <c r="E17">
-        <v>0.9847974352112842</v>
+        <v>1.016725215461452</v>
       </c>
       <c r="F17">
-        <v>0.9406727894964111</v>
+        <v>1.011321658673417</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038449314097819</v>
+        <v>1.031062809007082</v>
       </c>
       <c r="J17">
-        <v>1.002134618764519</v>
+        <v>1.021257636297708</v>
       </c>
       <c r="K17">
-        <v>1.034782941847108</v>
+        <v>1.034104723355159</v>
       </c>
       <c r="L17">
-        <v>0.9990773766222396</v>
+        <v>1.020159634333007</v>
       </c>
       <c r="M17">
-        <v>0.9558076545045658</v>
+        <v>1.014775821449051</v>
       </c>
       <c r="N17">
-        <v>1.004674704952767</v>
+        <v>1.011175813418596</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9746590040127552</v>
+        <v>1.015127164971684</v>
       </c>
       <c r="D18">
-        <v>1.021707260293681</v>
+        <v>1.0308314088721</v>
       </c>
       <c r="E18">
-        <v>0.9856034215845056</v>
+        <v>1.016890368440957</v>
       </c>
       <c r="F18">
-        <v>0.9424241933415062</v>
+        <v>1.011664327982812</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038687949170478</v>
+        <v>1.031094959298497</v>
       </c>
       <c r="J18">
-        <v>1.002714771477514</v>
+        <v>1.02137140242946</v>
       </c>
       <c r="K18">
-        <v>1.035161530357805</v>
+        <v>1.03417321583841</v>
       </c>
       <c r="L18">
-        <v>0.9996753737840551</v>
+        <v>1.020281381478436</v>
       </c>
       <c r="M18">
-        <v>0.9573167211955782</v>
+        <v>1.015074172541863</v>
       </c>
       <c r="N18">
-        <v>1.0048702483462</v>
+        <v>1.011213893312187</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9750105707087523</v>
+        <v>1.015194021616819</v>
       </c>
       <c r="D19">
-        <v>1.021901524178928</v>
+        <v>1.030869269243113</v>
       </c>
       <c r="E19">
-        <v>0.9858772588868594</v>
+        <v>1.016946693007001</v>
       </c>
       <c r="F19">
-        <v>0.9430183392328234</v>
+        <v>1.011781170287026</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038768817079244</v>
+        <v>1.031105898837543</v>
       </c>
       <c r="J19">
-        <v>1.002911693682058</v>
+        <v>1.021410185435503</v>
       </c>
       <c r="K19">
-        <v>1.035290046683572</v>
+        <v>1.03419655757235</v>
       </c>
       <c r="L19">
-        <v>0.9998784254508654</v>
+        <v>1.020322892288549</v>
       </c>
       <c r="M19">
-        <v>0.9578286090706367</v>
+        <v>1.015175894176703</v>
       </c>
       <c r="N19">
-        <v>1.004936620917237</v>
+        <v>1.011226873880401</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9734325633248779</v>
+        <v>1.014895039167662</v>
       </c>
       <c r="D20">
-        <v>1.021030158624654</v>
+        <v>1.030699957698219</v>
       </c>
       <c r="E20">
-        <v>0.9846487095773598</v>
+        <v>1.01669484235691</v>
       </c>
       <c r="F20">
-        <v>0.9403491738550572</v>
+        <v>1.011258627631874</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038405180160598</v>
+        <v>1.031056884346276</v>
       </c>
       <c r="J20">
-        <v>1.002027475908467</v>
+        <v>1.021236705932938</v>
       </c>
       <c r="K20">
-        <v>1.034713030085322</v>
+        <v>1.034092118784371</v>
       </c>
       <c r="L20">
-        <v>0.9989669729258083</v>
+        <v>1.020137239000261</v>
       </c>
       <c r="M20">
-        <v>0.955528794403756</v>
+        <v>1.014720938000535</v>
       </c>
       <c r="N20">
-        <v>1.004638591448277</v>
+        <v>1.011168807157342</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9681984331664871</v>
+        <v>1.013923304057795</v>
       </c>
       <c r="D21">
-        <v>1.018151026705796</v>
+        <v>1.030149673592701</v>
       </c>
       <c r="E21">
-        <v>0.9805840636976753</v>
+        <v>1.015876863598888</v>
       </c>
       <c r="F21">
-        <v>0.9314507358077402</v>
+        <v>1.00955983220327</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037187495872891</v>
+        <v>1.030895949999741</v>
       </c>
       <c r="J21">
-        <v>0.9990886793040142</v>
+        <v>1.020672132727704</v>
       </c>
       <c r="K21">
-        <v>1.032796493061056</v>
+        <v>1.033751721244824</v>
       </c>
       <c r="L21">
-        <v>0.9959428558691578</v>
+        <v>1.01953353791829</v>
       </c>
       <c r="M21">
-        <v>0.9478585790481356</v>
+        <v>1.013241231668435</v>
       </c>
       <c r="N21">
-        <v>1.003648004924531</v>
+        <v>1.010979771389611</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.964823439991875</v>
+        <v>1.0133125563823</v>
       </c>
       <c r="D22">
-        <v>1.016303971099396</v>
+        <v>1.02980382259464</v>
       </c>
       <c r="E22">
-        <v>0.977971437737846</v>
+        <v>1.015363194513752</v>
       </c>
       <c r="F22">
-        <v>0.925673800356104</v>
+        <v>1.008491736654306</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036393723618804</v>
+        <v>1.030793552650656</v>
       </c>
       <c r="J22">
-        <v>0.9971891524050353</v>
+        <v>1.020316723783737</v>
       </c>
       <c r="K22">
-        <v>1.031559217621669</v>
+        <v>1.033537048328453</v>
       </c>
       <c r="L22">
-        <v>0.9939922906124964</v>
+        <v>1.019153873974862</v>
       </c>
       <c r="M22">
-        <v>0.9428769349133829</v>
+        <v>1.012310398926947</v>
       </c>
       <c r="N22">
-        <v>1.003007713744882</v>
+        <v>1.010860722105623</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9666208603187153</v>
+        <v>1.013636304243865</v>
       </c>
       <c r="D23">
-        <v>1.017286714966672</v>
+        <v>1.029987151447028</v>
       </c>
       <c r="E23">
-        <v>0.9793620463048275</v>
+        <v>1.01563544054852</v>
       </c>
       <c r="F23">
-        <v>0.9287544131374587</v>
+        <v>1.009057955636672</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036817253545738</v>
+        <v>1.030847950118755</v>
       </c>
       <c r="J23">
-        <v>0.9982012156658402</v>
+        <v>1.020505174368621</v>
       </c>
       <c r="K23">
-        <v>1.032218257630064</v>
+        <v>1.033650911907876</v>
       </c>
       <c r="L23">
-        <v>0.9950311538721663</v>
+        <v>1.019355149701811</v>
       </c>
       <c r="M23">
-        <v>0.9455336232566004</v>
+        <v>1.012803898207389</v>
       </c>
       <c r="N23">
-        <v>1.003348858820759</v>
+        <v>1.010923850825135</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9735189536350904</v>
+        <v>1.01491133415388</v>
       </c>
       <c r="D24">
-        <v>1.021077823459863</v>
+        <v>1.030709185439217</v>
       </c>
       <c r="E24">
-        <v>0.9847159304589433</v>
+        <v>1.016708566442492</v>
       </c>
       <c r="F24">
-        <v>0.940495458264564</v>
+        <v>1.011287108631219</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038425131589749</v>
+        <v>1.031059561862045</v>
       </c>
       <c r="J24">
-        <v>1.002075905683155</v>
+        <v>1.021246163614955</v>
       </c>
       <c r="K24">
-        <v>1.034744630732538</v>
+        <v>1.03409781447337</v>
       </c>
       <c r="L24">
-        <v>0.9990168753034707</v>
+        <v>1.02014735852004</v>
       </c>
       <c r="M24">
-        <v>0.9556548487507842</v>
+        <v>1.014745737622482</v>
       </c>
       <c r="N24">
-        <v>1.00465491517491</v>
+        <v>1.011171973052386</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9811858178469527</v>
+        <v>1.016391885220921</v>
       </c>
       <c r="D25">
-        <v>1.025325599227561</v>
+        <v>1.031547594543803</v>
       </c>
       <c r="E25">
-        <v>0.9906992605718903</v>
+        <v>1.017956570505481</v>
       </c>
       <c r="F25">
-        <v>0.9534082078618479</v>
+        <v>1.013874112181892</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040174520921417</v>
+        <v>1.031299835538805</v>
       </c>
       <c r="J25">
-        <v>1.006363378145601</v>
+        <v>1.022104120309258</v>
       </c>
       <c r="K25">
-        <v>1.037543089137649</v>
+        <v>1.034613548173763</v>
       </c>
       <c r="L25">
-        <v>1.003443695042295</v>
+        <v>1.021066253147438</v>
       </c>
       <c r="M25">
-        <v>0.9667755938326584</v>
+        <v>1.01699718109482</v>
       </c>
       <c r="N25">
-        <v>1.006099889420456</v>
+        <v>1.011459051760254</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_112/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_112/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.017573522171699</v>
+        <v>0.9870558413953541</v>
       </c>
       <c r="D2">
-        <v>1.032216671736316</v>
+        <v>1.028600020549412</v>
       </c>
       <c r="E2">
-        <v>1.01895412357485</v>
+        <v>0.9953047300463249</v>
       </c>
       <c r="F2">
-        <v>1.015937847442841</v>
+        <v>0.9632101832684825</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.031487194878901</v>
+        <v>1.041481924031735</v>
       </c>
       <c r="J2">
-        <v>1.022786867894597</v>
+        <v>1.009630725239214</v>
       </c>
       <c r="K2">
-        <v>1.035022541285615</v>
+        <v>1.03967478765996</v>
       </c>
       <c r="L2">
-        <v>1.021798806911659</v>
+        <v>1.006829867343562</v>
       </c>
       <c r="M2">
-        <v>1.018791512133567</v>
+        <v>0.9752070208833417</v>
       </c>
       <c r="N2">
-        <v>1.011687332015984</v>
+        <v>1.00720071516861</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.018431927234231</v>
+        <v>0.9911880063222247</v>
       </c>
       <c r="D3">
-        <v>1.032702661840093</v>
+        <v>1.030915515741793</v>
       </c>
       <c r="E3">
-        <v>1.019679667576192</v>
+        <v>0.9985600228577752</v>
       </c>
       <c r="F3">
-        <v>1.017436600937688</v>
+        <v>0.9700718449451559</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.031620742544686</v>
+        <v>1.042382868357046</v>
       </c>
       <c r="J3">
-        <v>1.023281697063658</v>
+        <v>1.011921812190474</v>
       </c>
       <c r="K3">
-        <v>1.035318121683775</v>
+        <v>1.041167536604785</v>
       </c>
       <c r="L3">
-        <v>1.02233049326863</v>
+        <v>1.009211361677977</v>
       </c>
       <c r="M3">
-        <v>1.020093617021657</v>
+        <v>0.9811025466885315</v>
       </c>
       <c r="N3">
-        <v>1.011852679580706</v>
+        <v>1.007972344778034</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.01898757080724</v>
+        <v>0.9938052698922343</v>
       </c>
       <c r="D4">
-        <v>1.033017203349916</v>
+        <v>1.032386257979274</v>
       </c>
       <c r="E4">
-        <v>1.020149708460257</v>
+        <v>1.000627789558929</v>
       </c>
       <c r="F4">
-        <v>1.018406564735827</v>
+        <v>0.9744032120399441</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.03170600099857</v>
+        <v>1.042944252942771</v>
       </c>
       <c r="J4">
-        <v>1.02360146412114</v>
+        <v>1.013368775972069</v>
       </c>
       <c r="K4">
-        <v>1.035508734712094</v>
+        <v>1.042108911749088</v>
       </c>
       <c r="L4">
-        <v>1.022674429038855</v>
+        <v>1.010718643614691</v>
       </c>
       <c r="M4">
-        <v>1.020935851064403</v>
+        <v>0.9848207107364589</v>
       </c>
       <c r="N4">
-        <v>1.011959482729608</v>
+        <v>1.008459523533915</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.019221210272095</v>
+        <v>0.9948925379497007</v>
       </c>
       <c r="D5">
-        <v>1.033149452501587</v>
+        <v>1.032998126718988</v>
       </c>
       <c r="E5">
-        <v>1.020347448092494</v>
+        <v>1.001488165550841</v>
       </c>
       <c r="F5">
-        <v>1.018814382505304</v>
+        <v>0.9761994352122084</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.031741566469893</v>
+        <v>1.043175199159906</v>
       </c>
       <c r="J5">
-        <v>1.023735793179065</v>
+        <v>1.01396886425469</v>
       </c>
       <c r="K5">
-        <v>1.035588712409683</v>
+        <v>1.042498922636372</v>
       </c>
       <c r="L5">
-        <v>1.022818994956824</v>
+        <v>1.011344512629268</v>
       </c>
       <c r="M5">
-        <v>1.021289854454292</v>
+        <v>0.9863618047849123</v>
       </c>
       <c r="N5">
-        <v>1.012004337647208</v>
+        <v>1.008661527034239</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.019260442101867</v>
+        <v>0.9950743450549862</v>
       </c>
       <c r="D6">
-        <v>1.033171658599658</v>
+        <v>1.033100489572769</v>
       </c>
       <c r="E6">
-        <v>1.020380657304102</v>
+        <v>1.00163211315182</v>
       </c>
       <c r="F6">
-        <v>1.018882859665636</v>
+        <v>0.9764996179773692</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.031747521800986</v>
+        <v>1.043213682352475</v>
       </c>
       <c r="J6">
-        <v>1.023758341685476</v>
+        <v>1.014069148044607</v>
       </c>
       <c r="K6">
-        <v>1.035602131836898</v>
+        <v>1.042564074040288</v>
       </c>
       <c r="L6">
-        <v>1.022843266747728</v>
+        <v>1.011449149581964</v>
       </c>
       <c r="M6">
-        <v>1.021349289074778</v>
+        <v>0.9866193007820248</v>
       </c>
       <c r="N6">
-        <v>1.012011866334033</v>
+        <v>1.008695282378229</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.018990692525544</v>
+        <v>0.9938198485740825</v>
       </c>
       <c r="D7">
-        <v>1.033018970409196</v>
+        <v>1.032394458861552</v>
       </c>
       <c r="E7">
-        <v>1.020152350139783</v>
+        <v>1.000639320538907</v>
       </c>
       <c r="F7">
-        <v>1.018412013834721</v>
+        <v>0.9744273085837613</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.031706477315876</v>
+        <v>1.042947358600477</v>
       </c>
       <c r="J7">
-        <v>1.023603259429936</v>
+        <v>1.013376826291554</v>
       </c>
       <c r="K7">
-        <v>1.035509803992401</v>
+        <v>1.04211414549305</v>
       </c>
       <c r="L7">
-        <v>1.022676360833381</v>
+        <v>1.01072703677109</v>
       </c>
       <c r="M7">
-        <v>1.020940581552696</v>
+        <v>0.9848413880278483</v>
       </c>
       <c r="N7">
-        <v>1.011960082260745</v>
+        <v>1.00846223362105</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.017863582853292</v>
+        <v>0.9884643411496344</v>
       </c>
       <c r="D8">
-        <v>1.032380898161505</v>
+        <v>1.029388354816768</v>
       </c>
       <c r="E8">
-        <v>1.019199206949922</v>
+        <v>0.9964130763262395</v>
       </c>
       <c r="F8">
-        <v>1.016444325562885</v>
+        <v>0.9655524178146503</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.031532566970073</v>
+        <v>1.041790939208455</v>
       </c>
       <c r="J8">
-        <v>1.022954184591376</v>
+        <v>1.0104125436504</v>
       </c>
       <c r="K8">
-        <v>1.035122567444039</v>
+        <v>1.040184429649726</v>
       </c>
       <c r="L8">
-        <v>1.021978513367785</v>
+        <v>1.007641854996958</v>
       </c>
       <c r="M8">
-        <v>1.019231631934139</v>
+        <v>0.9772201455398742</v>
       </c>
       <c r="N8">
-        <v>1.011743250778884</v>
+        <v>1.007464058683015</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.01587901125328</v>
+        <v>0.9785702045267621</v>
       </c>
       <c r="D9">
-        <v>1.031257169330683</v>
+        <v>1.02387259608845</v>
       </c>
       <c r="E9">
-        <v>1.017524017094466</v>
+        <v>0.9886540214116802</v>
       </c>
       <c r="F9">
-        <v>1.012978118701747</v>
+        <v>0.9490178329590653</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.031217283563179</v>
+        <v>1.039582635563983</v>
       </c>
       <c r="J9">
-        <v>1.021807226035386</v>
+        <v>1.004903080546915</v>
       </c>
       <c r="K9">
-        <v>1.034435296853642</v>
+        <v>1.036589876854142</v>
       </c>
       <c r="L9">
-        <v>1.020748067794838</v>
+        <v>1.001933901130642</v>
       </c>
       <c r="M9">
-        <v>1.016217672278221</v>
+        <v>0.9629960168000927</v>
       </c>
       <c r="N9">
-        <v>1.011359735222549</v>
+        <v>1.005607779744374</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.014557026781007</v>
+        <v>0.9716303824915558</v>
       </c>
       <c r="D10">
-        <v>1.03050854360486</v>
+        <v>1.020036880094658</v>
       </c>
       <c r="E10">
-        <v>1.016410214593027</v>
+        <v>0.983247413031236</v>
       </c>
       <c r="F10">
-        <v>1.010667792754732</v>
+        <v>0.9372933050558847</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.031001184960753</v>
+        <v>1.037987856739577</v>
       </c>
       <c r="J10">
-        <v>1.021040449966748</v>
+        <v>1.001016616485216</v>
       </c>
       <c r="K10">
-        <v>1.033973877930194</v>
+        <v>1.034053547208264</v>
       </c>
       <c r="L10">
-        <v>1.019927296992984</v>
+        <v>0.997925874905209</v>
       </c>
       <c r="M10">
-        <v>1.014206410942817</v>
+        <v>0.9528952228948947</v>
       </c>
       <c r="N10">
-        <v>1.011103105670294</v>
+        <v>1.00429786580571</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.013984850312608</v>
+        <v>0.968534826543723</v>
       </c>
       <c r="D11">
-        <v>1.030184526244864</v>
+        <v>1.018335539234795</v>
       </c>
       <c r="E11">
-        <v>1.015928645792188</v>
+        <v>0.9808448226420398</v>
       </c>
       <c r="F11">
-        <v>1.009667449515966</v>
+        <v>0.9320248004846011</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030906215921613</v>
+        <v>1.03726625901264</v>
       </c>
       <c r="J11">
-        <v>1.020707923933341</v>
+        <v>0.9992778175935545</v>
       </c>
       <c r="K11">
-        <v>1.033773323468578</v>
+        <v>1.032919764418229</v>
       </c>
       <c r="L11">
-        <v>1.019571787669577</v>
+        <v>0.9961372500164773</v>
       </c>
       <c r="M11">
-        <v>1.01333499829042</v>
+        <v>0.9483535344348099</v>
       </c>
       <c r="N11">
-        <v>1.010991758143142</v>
+        <v>1.003711759522659</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.013772356623113</v>
+        <v>0.9673705474570484</v>
       </c>
       <c r="D12">
-        <v>1.03006419486757</v>
+        <v>1.017697244871869</v>
       </c>
       <c r="E12">
-        <v>1.015749877935133</v>
+        <v>0.9799425925503562</v>
       </c>
       <c r="F12">
-        <v>1.009295878735913</v>
+        <v>0.9300366070285206</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030870730752748</v>
+        <v>1.036993375366441</v>
       </c>
       <c r="J12">
-        <v>1.02058433300238</v>
+        <v>0.9986230478696138</v>
       </c>
       <c r="K12">
-        <v>1.033698715922452</v>
+        <v>1.032493070108264</v>
       </c>
       <c r="L12">
-        <v>1.019439719548922</v>
+        <v>0.9954644205117477</v>
       </c>
       <c r="M12">
-        <v>1.013011233792705</v>
+        <v>0.9466392597206815</v>
       </c>
       <c r="N12">
-        <v>1.010950365000452</v>
+        <v>1.003491049989907</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.013817935510125</v>
+        <v>0.9676209576289115</v>
       </c>
       <c r="D13">
-        <v>1.030090005284325</v>
+        <v>1.017834452566342</v>
       </c>
       <c r="E13">
-        <v>1.015788219336374</v>
+        <v>0.980136577060891</v>
       </c>
       <c r="F13">
-        <v>1.009375581957831</v>
+        <v>0.9304645368291236</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030878351912572</v>
+        <v>1.037052132475958</v>
       </c>
       <c r="J13">
-        <v>1.020610847110551</v>
+        <v>0.9987639095731293</v>
       </c>
       <c r="K13">
-        <v>1.033714724577073</v>
+        <v>1.03258485265465</v>
       </c>
       <c r="L13">
-        <v>1.019468049332292</v>
+        <v>0.9956091353906239</v>
       </c>
       <c r="M13">
-        <v>1.013080686205478</v>
+        <v>0.9470082477897791</v>
       </c>
       <c r="N13">
-        <v>1.010959245493667</v>
+        <v>1.0035385316416</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.013967284738225</v>
+        <v>0.9684388868319987</v>
       </c>
       <c r="D14">
-        <v>1.030174579134795</v>
+        <v>1.018282908567676</v>
       </c>
       <c r="E14">
-        <v>1.015913866572673</v>
+        <v>0.9807704473873771</v>
       </c>
       <c r="F14">
-        <v>1.009636735364475</v>
+        <v>0.9318611080407656</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030903286976488</v>
+        <v>1.037243802438435</v>
       </c>
       <c r="J14">
-        <v>1.02069770941675</v>
+        <v>0.9992238787804328</v>
       </c>
       <c r="K14">
-        <v>1.033767158678348</v>
+        <v>1.032884608419714</v>
       </c>
       <c r="L14">
-        <v>1.019560871204136</v>
+        <v>0.9960818090821738</v>
       </c>
       <c r="M14">
-        <v>1.013308237535683</v>
+        <v>0.9482124013154377</v>
       </c>
       <c r="N14">
-        <v>1.010988337260074</v>
+        <v>1.00369357787419</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.014059308789047</v>
+        <v>0.9689408984812518</v>
       </c>
       <c r="D15">
-        <v>1.030226690986185</v>
+        <v>1.018558368685001</v>
       </c>
       <c r="E15">
-        <v>1.015991296348523</v>
+        <v>0.9811596794228296</v>
       </c>
       <c r="F15">
-        <v>1.009797640604566</v>
+        <v>0.9327173651647166</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030918622552496</v>
+        <v>1.037361248108159</v>
       </c>
       <c r="J15">
-        <v>1.020751218091515</v>
+        <v>0.9995060856253495</v>
       </c>
       <c r="K15">
-        <v>1.033799450157405</v>
+        <v>1.033068554658154</v>
       </c>
       <c r="L15">
-        <v>1.019618059698134</v>
+        <v>0.9963719037353677</v>
       </c>
       <c r="M15">
-        <v>1.013448428284135</v>
+        <v>0.9489506387394632</v>
       </c>
       <c r="N15">
-        <v>1.0110062571939</v>
+        <v>1.003788703830826</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.014595005577131</v>
+        <v>0.9718338457190352</v>
       </c>
       <c r="D16">
-        <v>1.030530050716699</v>
+        <v>1.020148918227682</v>
       </c>
       <c r="E16">
-        <v>1.016442189862692</v>
+        <v>0.9834055225563038</v>
       </c>
       <c r="F16">
-        <v>1.010734182702766</v>
+        <v>0.9376387175203573</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031007458348545</v>
+        <v>1.038035077198773</v>
       </c>
       <c r="J16">
-        <v>1.021062507961469</v>
+        <v>1.001130794827048</v>
       </c>
       <c r="K16">
-        <v>1.033987172209001</v>
+        <v>1.034128025748004</v>
       </c>
       <c r="L16">
-        <v>1.019950888691154</v>
+        <v>0.9980434213640983</v>
       </c>
       <c r="M16">
-        <v>1.014264232329044</v>
+        <v>0.9531929304973745</v>
       </c>
       <c r="N16">
-        <v>1.01111049070426</v>
+        <v>1.004336351846244</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.014931101600696</v>
+        <v>0.9736236936252795</v>
       </c>
       <c r="D17">
-        <v>1.030720379610115</v>
+        <v>1.021135618661289</v>
       </c>
       <c r="E17">
-        <v>1.016725215461452</v>
+        <v>0.9847974352112837</v>
       </c>
       <c r="F17">
-        <v>1.011321658673417</v>
+        <v>0.9406727894964106</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.031062809007082</v>
+        <v>1.038449314097819</v>
       </c>
       <c r="J17">
-        <v>1.021257636297708</v>
+        <v>1.002134618764519</v>
       </c>
       <c r="K17">
-        <v>1.034104723355159</v>
+        <v>1.034782941847108</v>
       </c>
       <c r="L17">
-        <v>1.020159634333007</v>
+        <v>0.9990773766222393</v>
       </c>
       <c r="M17">
-        <v>1.014775821449051</v>
+        <v>0.9558076545045656</v>
       </c>
       <c r="N17">
-        <v>1.011175813418596</v>
+        <v>1.004674704952767</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.015127164971684</v>
+        <v>0.9746590040127547</v>
       </c>
       <c r="D18">
-        <v>1.0308314088721</v>
+        <v>1.02170726029368</v>
       </c>
       <c r="E18">
-        <v>1.016890368440957</v>
+        <v>0.9856034215845053</v>
       </c>
       <c r="F18">
-        <v>1.011664327982812</v>
+        <v>0.9424241933415058</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.031094959298497</v>
+        <v>1.038687949170477</v>
       </c>
       <c r="J18">
-        <v>1.02137140242946</v>
+        <v>1.002714771477513</v>
       </c>
       <c r="K18">
-        <v>1.03417321583841</v>
+        <v>1.035161530357805</v>
       </c>
       <c r="L18">
-        <v>1.020281381478436</v>
+        <v>0.9996753737840548</v>
       </c>
       <c r="M18">
-        <v>1.015074172541863</v>
+        <v>0.957316721195578</v>
       </c>
       <c r="N18">
-        <v>1.011213893312187</v>
+        <v>1.0048702483462</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.015194021616819</v>
+        <v>0.9750105707087517</v>
       </c>
       <c r="D19">
-        <v>1.030869269243113</v>
+        <v>1.021901524178929</v>
       </c>
       <c r="E19">
-        <v>1.016946693007001</v>
+        <v>0.985877258886859</v>
       </c>
       <c r="F19">
-        <v>1.011781170287026</v>
+        <v>0.9430183392328225</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.031105898837543</v>
+        <v>1.038768817079244</v>
       </c>
       <c r="J19">
-        <v>1.021410185435503</v>
+        <v>1.002911693682058</v>
       </c>
       <c r="K19">
-        <v>1.03419655757235</v>
+        <v>1.035290046683572</v>
       </c>
       <c r="L19">
-        <v>1.020322892288549</v>
+        <v>0.9998784254508651</v>
       </c>
       <c r="M19">
-        <v>1.015175894176703</v>
+        <v>0.9578286090706359</v>
       </c>
       <c r="N19">
-        <v>1.011226873880401</v>
+        <v>1.004936620917236</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.014895039167662</v>
+        <v>0.9734325633248769</v>
       </c>
       <c r="D20">
-        <v>1.030699957698219</v>
+        <v>1.021030158624653</v>
       </c>
       <c r="E20">
-        <v>1.01669484235691</v>
+        <v>0.9846487095773588</v>
       </c>
       <c r="F20">
-        <v>1.011258627631874</v>
+        <v>0.9403491738550563</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.031056884346276</v>
+        <v>1.038405180160597</v>
       </c>
       <c r="J20">
-        <v>1.021236705932938</v>
+        <v>1.002027475908466</v>
       </c>
       <c r="K20">
-        <v>1.034092118784371</v>
+        <v>1.034713030085322</v>
       </c>
       <c r="L20">
-        <v>1.020137239000261</v>
+        <v>0.9989669729258074</v>
       </c>
       <c r="M20">
-        <v>1.014720938000535</v>
+        <v>0.9555287944037552</v>
       </c>
       <c r="N20">
-        <v>1.011168807157342</v>
+        <v>1.004638591448276</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.013923304057795</v>
+        <v>0.9681984331664862</v>
       </c>
       <c r="D21">
-        <v>1.030149673592701</v>
+        <v>1.018151026705796</v>
       </c>
       <c r="E21">
-        <v>1.015876863598888</v>
+        <v>0.9805840636976745</v>
       </c>
       <c r="F21">
-        <v>1.00955983220327</v>
+        <v>0.9314507358077391</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030895949999741</v>
+        <v>1.037187495872891</v>
       </c>
       <c r="J21">
-        <v>1.020672132727704</v>
+        <v>0.9990886793040135</v>
       </c>
       <c r="K21">
-        <v>1.033751721244824</v>
+        <v>1.032796493061056</v>
       </c>
       <c r="L21">
-        <v>1.01953353791829</v>
+        <v>0.9959428558691569</v>
       </c>
       <c r="M21">
-        <v>1.013241231668435</v>
+        <v>0.9478585790481345</v>
       </c>
       <c r="N21">
-        <v>1.010979771389611</v>
+        <v>1.003648004924531</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.0133125563823</v>
+        <v>0.9648234399918746</v>
       </c>
       <c r="D22">
-        <v>1.02980382259464</v>
+        <v>1.016303971099395</v>
       </c>
       <c r="E22">
-        <v>1.015363194513752</v>
+        <v>0.9779714377378455</v>
       </c>
       <c r="F22">
-        <v>1.008491736654306</v>
+        <v>0.9256738003561032</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030793552650656</v>
+        <v>1.036393723618804</v>
       </c>
       <c r="J22">
-        <v>1.020316723783737</v>
+        <v>0.9971891524050347</v>
       </c>
       <c r="K22">
-        <v>1.033537048328453</v>
+        <v>1.031559217621669</v>
       </c>
       <c r="L22">
-        <v>1.019153873974862</v>
+        <v>0.9939922906124957</v>
       </c>
       <c r="M22">
-        <v>1.012310398926947</v>
+        <v>0.9428769349133818</v>
       </c>
       <c r="N22">
-        <v>1.010860722105623</v>
+        <v>1.003007713744882</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.013636304243865</v>
+        <v>0.9666208603187144</v>
       </c>
       <c r="D23">
-        <v>1.029987151447028</v>
+        <v>1.017286714966671</v>
       </c>
       <c r="E23">
-        <v>1.01563544054852</v>
+        <v>0.9793620463048267</v>
       </c>
       <c r="F23">
-        <v>1.009057955636672</v>
+        <v>0.9287544131374574</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030847950118755</v>
+        <v>1.036817253545738</v>
       </c>
       <c r="J23">
-        <v>1.020505174368621</v>
+        <v>0.9982012156658392</v>
       </c>
       <c r="K23">
-        <v>1.033650911907876</v>
+        <v>1.032218257630063</v>
       </c>
       <c r="L23">
-        <v>1.019355149701811</v>
+        <v>0.9950311538721655</v>
       </c>
       <c r="M23">
-        <v>1.012803898207389</v>
+        <v>0.9455336232565993</v>
       </c>
       <c r="N23">
-        <v>1.010923850825135</v>
+        <v>1.003348858820759</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.01491133415388</v>
+        <v>0.9735189536350894</v>
       </c>
       <c r="D24">
-        <v>1.030709185439217</v>
+        <v>1.021077823459863</v>
       </c>
       <c r="E24">
-        <v>1.016708566442492</v>
+        <v>0.9847159304589426</v>
       </c>
       <c r="F24">
-        <v>1.011287108631219</v>
+        <v>0.9404954582645635</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031059561862045</v>
+        <v>1.038425131589749</v>
       </c>
       <c r="J24">
-        <v>1.021246163614955</v>
+        <v>1.002075905683154</v>
       </c>
       <c r="K24">
-        <v>1.03409781447337</v>
+        <v>1.034744630732538</v>
       </c>
       <c r="L24">
-        <v>1.02014735852004</v>
+        <v>0.9990168753034699</v>
       </c>
       <c r="M24">
-        <v>1.014745737622482</v>
+        <v>0.9556548487507834</v>
       </c>
       <c r="N24">
-        <v>1.011171973052386</v>
+        <v>1.004654915174909</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.016391885220921</v>
+        <v>0.9811858178469522</v>
       </c>
       <c r="D25">
-        <v>1.031547594543803</v>
+        <v>1.02532559922756</v>
       </c>
       <c r="E25">
-        <v>1.017956570505481</v>
+        <v>0.9906992605718896</v>
       </c>
       <c r="F25">
-        <v>1.013874112181892</v>
+        <v>0.9534082078618477</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.031299835538805</v>
+        <v>1.040174520921416</v>
       </c>
       <c r="J25">
-        <v>1.022104120309258</v>
+        <v>1.0063633781456</v>
       </c>
       <c r="K25">
-        <v>1.034613548173763</v>
+        <v>1.037543089137648</v>
       </c>
       <c r="L25">
-        <v>1.021066253147438</v>
+        <v>1.003443695042294</v>
       </c>
       <c r="M25">
-        <v>1.01699718109482</v>
+        <v>0.9667755938326582</v>
       </c>
       <c r="N25">
-        <v>1.011459051760254</v>
+        <v>1.006099889420456</v>
       </c>
     </row>
   </sheetData>
